--- a/NT_AirPollution.Web/App_Data/Payment/Template/免徵證明.xlsx
+++ b/NT_AirPollution.Web/App_Data/Payment/Template/免徵證明.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\case\Alvin\NT_AirPollution\NT_AirPollution.Web\App_Data\Payment\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B8E38C-B82F-4010-9C3B-FBB43D53EC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6778C2C3-84AF-4A43-ADD7-385F9B6BEBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,7 +134,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -177,21 +177,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="14"/>
       <name val="標楷體"/>
       <family val="4"/>
@@ -304,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -331,53 +316,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -390,22 +330,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -416,12 +344,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -430,9 +352,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -446,6 +365,63 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -827,447 +803,447 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="34.200000000000003" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
       <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" s="8" customFormat="1" ht="34.200000000000003" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="16"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="50"/>
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" s="6" customFormat="1" ht="34.200000000000003" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="20"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="52"/>
     </row>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="34.200000000000003" customHeight="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="22"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="54"/>
     </row>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="34.200000000000003" customHeight="1">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="22"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="54"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="34.200000000000003" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="24"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="55"/>
     </row>
     <row r="7" spans="1:19" ht="25.2" customHeight="1">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="49" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="27"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="38"/>
     </row>
     <row r="8" spans="1:19" ht="42.6" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="49" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="36"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="40"/>
       <c r="S8" s="2"/>
     </row>
     <row r="9" spans="1:19" s="11" customFormat="1" ht="82.2" customHeight="1">
-      <c r="A9" s="30"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="36"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="40"/>
     </row>
     <row r="10" spans="1:19" s="5" customFormat="1" ht="22.2">
-      <c r="A10" s="31"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="49" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="34"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="38"/>
     </row>
     <row r="11" spans="1:19" s="5" customFormat="1" ht="66" customHeight="1">
-      <c r="A11" s="31"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="49" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="36"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="40"/>
     </row>
     <row r="12" spans="1:19" s="5" customFormat="1" ht="66" customHeight="1">
-      <c r="A12" s="31"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="55"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="33"/>
     </row>
     <row r="13" spans="1:19" s="5" customFormat="1" ht="66" customHeight="1">
-      <c r="A13" s="31"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="55"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="33"/>
     </row>
     <row r="14" spans="1:19" ht="16.2">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="40"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="21"/>
     </row>
     <row r="15" spans="1:19" ht="19.8">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="44"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="25"/>
     </row>
     <row r="16" spans="1:19" ht="19.8">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="44"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="25"/>
     </row>
     <row r="17" spans="1:20" ht="19.8">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="44"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="25"/>
     </row>
     <row r="18" spans="1:20" ht="19.8">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="44"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="25"/>
     </row>
     <row r="19" spans="1:20" ht="19.8">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="44"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="25"/>
     </row>
     <row r="20" spans="1:20" ht="19.8">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="44"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="25"/>
       <c r="S20" t="s">
         <v>0</v>
       </c>
@@ -1276,76 +1252,76 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="34.200000000000003" customHeight="1">
-      <c r="A21" s="57"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="25" t="s">
+      <c r="A21" s="35"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="58"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="1:20" ht="34.200000000000003" customHeight="1">
-      <c r="A22" s="41"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="44"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="25"/>
     </row>
     <row r="23" spans="1:20" ht="34.200000000000003" customHeight="1">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="48" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="46"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="48" t="s">
+      <c r="I23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="46" t="s">
+      <c r="M23" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="51" t="s">
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="53"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="31"/>
     </row>
     <row r="24" spans="1:20" s="1" customFormat="1" ht="34.200000000000003" customHeight="1">
       <c r="O24" s="3" t="s">
@@ -1354,18 +1330,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E10:R10"/>
-    <mergeCell ref="E11:R11"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:R5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:R6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:R7"/>
     <mergeCell ref="D8:R8"/>
     <mergeCell ref="D9:R9"/>
     <mergeCell ref="A1:R1"/>
@@ -1375,6 +1339,18 @@
     <mergeCell ref="C3:R3"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:R2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:R5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:R6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:R7"/>
+    <mergeCell ref="E10:R10"/>
+    <mergeCell ref="E11:R11"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.43307086614173229" bottom="0.39370078740157483" header="0.47244094488188981" footer="0.51181102362204722"/>
